--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samue\Documents\UiPath\NYB.000-RegistroPlanillaMaestra\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E681FA1-F077-4D1F-AAF1-38EA8BD5A50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB1EFA0-4654-4B85-94AD-97C4BF67BEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>Cola_Prueba</t>
+  </si>
+  <si>
+    <t>samuel.villanueva@beecker.ai's workspace</t>
+  </si>
+  <si>
+    <t>Beecker | Solicitud de Documentación</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -615,16 +624,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -663,12 +672,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+    <row r="2" spans="1:26" ht="18">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -694,75 +705,106 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="43.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:26" ht="43.2">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="28.8">
-      <c r="A7" t="s">
+    <row r="8" spans="1:26" ht="28.8">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1751,16 +1793,17 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{35DD1D69-B3B9-4B89-BB42-70A16E91C009}"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{35DD1D69-B3B9-4B89-BB42-70A16E91C009}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samue\Documents\UiPath\NYB.000-RegistroPlanillaMaestra\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB1EFA0-4654-4B85-94AD-97C4BF67BEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F860268-9790-464F-8AB7-0006FB55E1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>samuel.villanueva@beecker.ai's workspace</t>
-  </si>
-  <si>
-    <t>Beecker | Solicitud de Documentación</t>
   </si>
   <si>
     <t>Subject</t>
@@ -627,7 +624,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -674,11 +671,9 @@
     </row>
     <row r="2" spans="1:26" ht="18">
       <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samue\Documents\UiPath\NYB.000-RegistroPlanillaMaestra\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F860268-9790-464F-8AB7-0006FB55E1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD9F131-328D-4D55-BC36-586C0EE093CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -165,12 +165,6 @@
     <t>Credentials</t>
   </si>
   <si>
-    <t>Email_Credentials</t>
-  </si>
-  <si>
-    <t>Gmail_Credentials_User</t>
-  </si>
-  <si>
     <t>Paths Documents</t>
   </si>
   <si>
@@ -190,6 +184,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Beecker | Solicitud de Documentación</t>
+  </si>
+  <si>
+    <t>Email subject for document request</t>
+  </si>
+  <si>
+    <t>Email address to which the bot results will be sent</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -671,10 +674,14 @@
     </row>
     <row r="2" spans="1:26" ht="18">
       <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -701,7 +708,7 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -734,7 +741,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -745,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
@@ -754,7 +761,7 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -779,10 +786,13 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -793,12 +803,8 @@
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samue\Documents\UiPath\NYB.000-RegistroPlanillaMaestra\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD9F131-328D-4D55-BC36-586C0EE093CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CFC74D-9B57-43C7-8B61-24EDC99C6C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samue\Documents\UiPath\NYB.000-RegistroPlanillaMaestra\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CFC74D-9B57-43C7-8B61-24EDC99C6C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B87CAE-D952-4C51-98AF-E7C21B2CBE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -193,13 +193,22 @@
   </si>
   <si>
     <t>Email address to which the bot results will be sent</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ColName</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -234,6 +243,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -283,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -309,6 +325,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -626,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -807,7 +824,11 @@
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1815,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1998,12 +2019,21 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B24" s="11"/>
+    </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samue\Documents\UiPath\NYB.000-RegistroPlanillaMaestra\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B87CAE-D952-4C51-98AF-E7C21B2CBE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E7671-3C2C-46F4-ABF3-5F5CBD34C1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Emails</t>
   </si>
   <si>
-    <t>Credentials</t>
-  </si>
-  <si>
     <t>Paths Documents</t>
   </si>
   <si>
@@ -195,13 +192,19 @@
     <t>Email address to which the bot results will be sent</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>ColName</t>
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>URL's</t>
+  </si>
+  <si>
+    <t>UrlCp</t>
+  </si>
+  <si>
+    <t>https://www.correosdemexico.gob.mx/sslservicios/consultacp/descarga.aspx</t>
   </si>
 </sst>
 </file>
@@ -310,6 +313,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,7 +329,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -643,14 +646,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -691,13 +694,13 @@
     </row>
     <row r="2" spans="1:26" ht="18">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -724,11 +727,11 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -758,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -769,7 +772,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
@@ -777,11 +780,11 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="28.8">
       <c r="A8" t="s">
@@ -795,40 +798,40 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1826,9 +1829,10 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{35DD1D69-B3B9-4B89-BB42-70A16E91C009}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{A17E226D-0305-4EBB-8707-F1DEDEFE2481}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1836,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2021,10 +2025,10 @@
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2032,7 +2036,7 @@
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samue\Documents\UiPath\NYB.000-RegistroPlanillaMaestra\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E7671-3C2C-46F4-ABF3-5F5CBD34C1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F636442-997A-4DEF-9C42-31733A0F36AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>samuel.villanueva@beecker.ai</t>
   </si>
   <si>
-    <t>Cola_Prueba</t>
-  </si>
-  <si>
     <t>samuel.villanueva@beecker.ai's workspace</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>https://www.correosdemexico.gob.mx/sslservicios/consultacp/descarga.aspx</t>
+  </si>
+  <si>
+    <t>Practicante_Documentos_BA</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -694,13 +694,13 @@
     </row>
     <row r="2" spans="1:26" ht="18">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -761,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -772,7 +772,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
@@ -812,22 +812,22 @@
         <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2025,10 +2025,10 @@
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samue\Documents\UiPath\NYB.000-RegistroPlanillaMaestra\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F636442-997A-4DEF-9C42-31733A0F36AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C58BB-606C-4BE0-94BC-C987E04E9549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Practicante_Documentos_BA</t>
+  </si>
+  <si>
+    <t>SheetName</t>
+  </si>
+  <si>
+    <t>Vigente</t>
+  </si>
+  <si>
+    <t>Google Sheets</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +297,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -302,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -327,6 +342,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,7 +665,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -830,9 +848,29 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -1820,11 +1858,12 @@
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -1841,7 +1880,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2023,14 +2062,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
